--- a/free_recall_SHINY/Test Data/Version B Guess Recall Data.xlsx
+++ b/free_recall_SHINY/Test Data/Version B Guess Recall Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Guess-Test Project\GRAM 2016 Recall Experiments\Recall Data Files\Version B\Good Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302ED2E5-231B-410C-BC91-5B426859CD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess Data" sheetId="1" r:id="rId1"/>
@@ -92,9 +93,6 @@
     <t xml:space="preserve">cafeteria cigarettes fights chain cell inmate detective tattoo weights shackle </t>
   </si>
   <si>
-    <t xml:space="preserve">asparagus beets radishes cauliflower onion  potato zucchini vanity lotion deodorant mat shampoo soap loofah shower cell cafeteria cigarette inmate shackle paperclip fang scout canister ghoul fog moisture reptile moose goal ranch broom mop comb  brush neck shoulder cheek liver legs loveseat chaise davenport  </t>
-  </si>
-  <si>
     <t>toes  fingers eyes nose biceps</t>
   </si>
   <si>
@@ -167,12 +165,6 @@
     <t>hunter  farmer animal keeper killer</t>
   </si>
   <si>
-    <t>tower  dectecitve fights cigarettes pistol weights cafeteria guard chainlink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manion  knee castle  neck head room  dectective beets guard hotel fights shack silk cashmere weights pistol chainlink lodge igloo </t>
-  </si>
-  <si>
     <t xml:space="preserve">body human, person man woman </t>
   </si>
   <si>
@@ -239,33 +231,9 @@
     <t>AdHoc</t>
   </si>
   <si>
-    <t>cabbage  turnip  eggplant garlic  beet  onion  spinach</t>
-  </si>
-  <si>
-    <t>biscuit  walnut  bar  broom  mop  ice cream se</t>
-  </si>
-  <si>
     <t>flurry wrap winner avenue dwarf winch workshop kiss canyon gang celloph ane cereal winner</t>
   </si>
   <si>
-    <t>lotion  faucet tweezers tile mouthwash shaver candle</t>
-  </si>
-  <si>
-    <t>jackpot  anvil  landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell  officer cafetaria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">corn  squach  zuccini  potato  turnip  califlower  onion  lettuce  kale  celery  eggplant  beets  okra  </t>
-  </si>
-  <si>
-    <t>switch  mop  broom  bar  booth  lane musket  aunt</t>
-  </si>
-  <si>
-    <t>gin jar joke wrap  kiss winner furry gong cereal star</t>
-  </si>
-  <si>
     <t>Items Recalled</t>
   </si>
   <si>
@@ -290,9 +258,6 @@
     <t>Items Guessed</t>
   </si>
   <si>
-    <t>asphualt panther spider tulip costume ring pupil ink cell officer stomach sca rf duplex land costume lipstick gown concealer diamonds bobby  pin towel whippingcream dairy pepper licorice liver heart brain panther knob  shadow reptile bruise nectar  wheel otter witch</t>
-  </si>
-  <si>
     <t>Final Recall</t>
   </si>
   <si>
@@ -300,12 +265,48 @@
   </si>
   <si>
     <t>Int Guess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asparagus beets radishes cauliflower onion potato zucchini vanity lotion deodorant mat shampoo soap loofah shower cell cafeteria cigarette inmate shackle paperclip fang scout canister ghoul fog moisture reptile moose goal ranch broom mop comb brush neck shoulder cheek liver legs loveseat chaise davenport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manion knee castle neck head room dectective beets guard hotel fights shack silk cashmere weights pistol chainlink lodge igloo </t>
+  </si>
+  <si>
+    <t>asphualt panther spider tulip costume ring pupil ink cell officer stomach sca rf duplex land costume lipstick gown concealer diamonds bobby pin towel whippingcream dairy pepper licorice liver heart brain panther knob shadow reptile bruise nectar wheel otter witch</t>
+  </si>
+  <si>
+    <t>tower dectecitve fights cigarettes pistol weights cafeteria guard chainlink</t>
+  </si>
+  <si>
+    <t>cabbage turnip eggplant garlic beet onion spinach</t>
+  </si>
+  <si>
+    <t>biscuit walnut bar broom mop ice cream se</t>
+  </si>
+  <si>
+    <t>lotion faucet tweezers tile mouthwash shaver candle</t>
+  </si>
+  <si>
+    <t>jackpot anvil landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell officer cafetaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">corn squach zuccini potato turnip califlower onion lettuce kale celery eggplant beets okra </t>
+  </si>
+  <si>
+    <t>switch mop broom bar booth lane musket aunt</t>
+  </si>
+  <si>
+    <t>gin jar joke wrap kiss winner furry gong cereal star</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,6 +942,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -976,6 +994,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1151,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1167,21 +1202,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1203,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1217,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1231,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1245,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1259,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1273,13 +1308,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,13 +1378,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,13 +1392,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,13 +1406,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,13 +1434,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,13 +1448,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,13 +1462,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1455,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1469,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1483,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1497,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -1511,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1525,13 +1560,13 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,13 +1602,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,13 +1616,13 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,17 +1630,17 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
     <sortCondition ref="C2:C66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,11 +1649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,21 +1664,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1651,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -1665,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -1679,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
@@ -1693,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -1707,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
@@ -1721,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
@@ -1735,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1805,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,13 +1882,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,13 +1896,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1889,13 +1924,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,13 +1952,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1931,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,13 +1980,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,13 +1994,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,13 +2008,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1987,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2029,13 +2064,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,13 +2078,13 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2073,11 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,15 +2123,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2104,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2136,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
